--- a/iecodebook.xlsx
+++ b/iecodebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\thesis-chapter1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E9F9D9-B09C-432D-9067-ED99EDCF2CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE24D06-BA65-4BA1-8719-4971707C9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="choices_current" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">choices_current!$A$1:$C$1699</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8670" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8670" uniqueCount="1950">
   <si>
     <t>name</t>
   </si>
@@ -5882,6 +5885,9 @@
   </si>
   <si>
     <t>Mexican State Identifier</t>
+  </si>
+  <si>
+    <t>(105=1)(110=2)(115=3)(119=4)</t>
   </si>
 </sst>
 </file>
@@ -6249,7 +6255,7 @@
   <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6262,7 +6268,7 @@
     <col min="6" max="6" width="75.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -6841,8 +6847,8 @@
       <c r="H20" t="s">
         <v>39</v>
       </c>
-      <c r="I20" t="s">
-        <v>20</v>
+      <c r="I20" s="1" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -17815,8 +17821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1699"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A1522" workbookViewId="0">
+      <selection activeCell="A1531" sqref="A1531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/iecodebook.xlsx
+++ b/iecodebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE24D06-BA65-4BA1-8719-4971707C9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CECB440-19A9-46A7-8B54-FFC24556B6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6255,7 +6255,7 @@
   <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/iecodebook.xlsx
+++ b/iecodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A9EFC-ECBC-42C7-9376-C1CCEC80EFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B44F9-7D54-45C1-AEE4-F3544A1DCC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="314">
   <si>
     <t>name</t>
   </si>
@@ -486,39 +486,6 @@
     <t>Desocupados Ausentes sin ingreso y sin nexo  laborla</t>
   </si>
   <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>Preescolar</t>
-  </si>
-  <si>
-    <t>Primaria</t>
-  </si>
-  <si>
-    <t>Secundaria</t>
-  </si>
-  <si>
-    <t>Preparatoria o bachillerato</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Carrera técnica</t>
-  </si>
-  <si>
-    <t>Profesional</t>
-  </si>
-  <si>
-    <t>Maestría</t>
-  </si>
-  <si>
-    <t>Doctorado</t>
-  </si>
-  <si>
-    <t>No Sabe</t>
-  </si>
-  <si>
     <t>Menor de doce años</t>
   </si>
   <si>
@@ -961,6 +928,42 @@
   </si>
   <si>
     <t>Economically Active identifier</t>
+  </si>
+  <si>
+    <t>No studies at all</t>
+  </si>
+  <si>
+    <t>Preschool</t>
+  </si>
+  <si>
+    <t>Primary education</t>
+  </si>
+  <si>
+    <t>Secondary education</t>
+  </si>
+  <si>
+    <t>High school</t>
+  </si>
+  <si>
+    <t>Bachelors degree</t>
+  </si>
+  <si>
+    <t>Technical career</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher training </t>
+  </si>
+  <si>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>Masters degree</t>
+  </si>
+  <si>
+    <t>Doesn't know</t>
+  </si>
+  <si>
+    <t>(99=.)</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1002,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1321,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1335,7 +1341,7 @@
     <col min="6" max="6" width="68.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1363,7 +1369,7 @@
       <c r="H1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1392,7 +1398,7 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1401,7 +1407,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1421,16 +1427,16 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1450,7 +1456,7 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1459,7 +1465,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1479,7 +1485,7 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1488,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1508,7 +1514,7 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1517,7 +1523,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1537,7 +1543,7 @@
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1566,7 +1572,7 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1575,7 +1581,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1595,7 +1601,7 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1604,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1624,8 +1630,8 @@
       <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>302</v>
+      <c r="I10" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1633,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1659,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1679,8 +1685,8 @@
       <c r="H12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
-        <v>20</v>
+      <c r="I12" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1688,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1708,7 +1714,7 @@
       <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1717,7 +1723,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -1737,7 +1743,7 @@
       <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1746,7 +1752,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1766,8 +1772,8 @@
       <c r="H15" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>302</v>
+      <c r="I15" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1775,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1795,7 +1801,7 @@
       <c r="H16" t="s">
         <v>20</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1804,7 +1810,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1824,7 +1830,7 @@
       <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1853,7 +1859,7 @@
       <c r="H18" t="s">
         <v>37</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1882,7 +1888,7 @@
       <c r="H19" t="s">
         <v>38</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1911,7 +1917,7 @@
       <c r="H20" t="s">
         <v>39</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1940,7 +1946,7 @@
       <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1969,7 +1975,7 @@
       <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1998,7 +2004,7 @@
       <c r="H23" t="s">
         <v>42</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2027,7 +2033,7 @@
       <c r="H24" t="s">
         <v>43</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2056,7 +2062,7 @@
       <c r="H25" t="s">
         <v>44</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2085,7 +2091,7 @@
       <c r="H26" t="s">
         <v>45</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2114,7 +2120,7 @@
       <c r="H27" t="s">
         <v>20</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2143,7 +2149,7 @@
       <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2172,7 +2178,7 @@
       <c r="H29" t="s">
         <v>48</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2201,7 +2207,7 @@
       <c r="H30" t="s">
         <v>49</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2230,7 +2236,7 @@
       <c r="H31" t="s">
         <v>50</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2259,7 +2265,7 @@
       <c r="H32" t="s">
         <v>97</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2288,7 +2294,7 @@
       <c r="H33" t="s">
         <v>97</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2317,7 +2323,7 @@
       <c r="H34" t="s">
         <v>97</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2346,7 +2352,7 @@
       <c r="H35" t="s">
         <v>97</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2375,7 +2381,7 @@
       <c r="H36" t="s">
         <v>97</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2404,7 +2410,7 @@
       <c r="H37" t="s">
         <v>97</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2433,7 +2439,7 @@
       <c r="H38" t="s">
         <v>97</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2462,7 +2468,7 @@
       <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2491,7 +2497,7 @@
       <c r="H40" t="s">
         <v>20</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2583,7 +2589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2870,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2881,7 +2889,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2892,7 +2900,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2903,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2914,7 +2922,7 @@
         <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2925,7 +2933,7 @@
         <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2936,7 +2944,7 @@
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2947,7 +2955,7 @@
         <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -2958,7 +2966,7 @@
         <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -2969,7 +2977,7 @@
         <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -2980,7 +2988,7 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2991,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -3002,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -3013,7 +3021,7 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -3024,7 +3032,7 @@
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -3035,7 +3043,7 @@
         <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -3046,7 +3054,7 @@
         <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -3057,7 +3065,7 @@
         <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -3068,7 +3076,7 @@
         <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -3090,7 +3098,7 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -3101,7 +3109,7 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -3112,7 +3120,7 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -3123,7 +3131,7 @@
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -3134,7 +3142,7 @@
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -3145,7 +3153,7 @@
         <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -3156,7 +3164,7 @@
         <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -3167,7 +3175,7 @@
         <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -3178,7 +3186,7 @@
         <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -3189,7 +3197,7 @@
         <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -3200,7 +3208,7 @@
         <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -3211,7 +3219,7 @@
         <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -3222,7 +3230,7 @@
         <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -3233,7 +3241,7 @@
         <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -3244,7 +3252,7 @@
         <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -3255,7 +3263,7 @@
         <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -3266,7 +3274,7 @@
         <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -3277,7 +3285,7 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -3288,7 +3296,7 @@
         <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -3299,7 +3307,7 @@
         <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -3310,7 +3318,7 @@
         <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -3321,7 +3329,7 @@
         <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -3332,7 +3340,7 @@
         <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -3343,7 +3351,7 @@
         <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -3354,7 +3362,7 @@
         <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -3365,7 +3373,7 @@
         <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -3376,7 +3384,7 @@
         <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -3387,7 +3395,7 @@
         <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -3398,7 +3406,7 @@
         <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -3409,7 +3417,7 @@
         <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -3420,7 +3428,7 @@
         <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -3431,7 +3439,7 @@
         <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -3442,7 +3450,7 @@
         <v>129</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -3453,7 +3461,7 @@
         <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -3475,7 +3483,7 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -3486,7 +3494,7 @@
         <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -3497,7 +3505,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -3508,7 +3516,7 @@
         <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -3519,7 +3527,7 @@
         <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -3530,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -3541,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -3552,7 +3560,7 @@
         <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -3563,7 +3571,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -3574,7 +3582,7 @@
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -3585,7 +3593,7 @@
         <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -3596,7 +3604,7 @@
         <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -3607,7 +3615,7 @@
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -3618,7 +3626,7 @@
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -3629,7 +3637,7 @@
         <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -3640,7 +3648,7 @@
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -3651,7 +3659,7 @@
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -3662,7 +3670,7 @@
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -3673,7 +3681,7 @@
         <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -3684,7 +3692,7 @@
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -3695,7 +3703,7 @@
         <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -3706,7 +3714,7 @@
         <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -3717,7 +3725,7 @@
         <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -3728,7 +3736,7 @@
         <v>116</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -3739,7 +3747,7 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -3750,7 +3758,7 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -3761,7 +3769,7 @@
         <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -3772,7 +3780,7 @@
         <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -3783,7 +3791,7 @@
         <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -3794,7 +3802,7 @@
         <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -3805,7 +3813,7 @@
         <v>123</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -3816,7 +3824,7 @@
         <v>124</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -3827,7 +3835,7 @@
         <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -3849,7 +3857,7 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -3860,7 +3868,7 @@
         <v>99</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -3871,7 +3879,7 @@
         <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -3882,7 +3890,7 @@
         <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -3893,7 +3901,7 @@
         <v>102</v>
       </c>
       <c r="C119" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -3926,7 +3934,7 @@
         <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -3948,7 +3956,7 @@
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -3959,7 +3967,7 @@
         <v>99</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -3970,7 +3978,7 @@
         <v>100</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -3981,7 +3989,7 @@
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -3992,7 +4000,7 @@
         <v>102</v>
       </c>
       <c r="C128" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -4003,7 +4011,7 @@
         <v>103</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -4025,7 +4033,7 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -4036,7 +4044,7 @@
         <v>99</v>
       </c>
       <c r="C132" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -4047,7 +4055,7 @@
         <v>100</v>
       </c>
       <c r="C133" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -4058,7 +4066,7 @@
         <v>101</v>
       </c>
       <c r="C134" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -4069,7 +4077,7 @@
         <v>102</v>
       </c>
       <c r="C135" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -4091,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -4102,7 +4110,7 @@
         <v>99</v>
       </c>
       <c r="C138" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -4113,7 +4121,7 @@
         <v>100</v>
       </c>
       <c r="C139" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -4124,7 +4132,7 @@
         <v>101</v>
       </c>
       <c r="C140" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -4135,7 +4143,7 @@
         <v>102</v>
       </c>
       <c r="C141" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -4146,7 +4154,7 @@
         <v>103</v>
       </c>
       <c r="C142" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -4157,7 +4165,7 @@
         <v>104</v>
       </c>
       <c r="C143" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -4179,7 +4187,7 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -4190,7 +4198,7 @@
         <v>99</v>
       </c>
       <c r="C146" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -4201,7 +4209,7 @@
         <v>100</v>
       </c>
       <c r="C147" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -4212,7 +4220,7 @@
         <v>101</v>
       </c>
       <c r="C148" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -4234,7 +4242,7 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -4245,7 +4253,7 @@
         <v>99</v>
       </c>
       <c r="C151" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -4256,7 +4264,7 @@
         <v>100</v>
       </c>
       <c r="C152" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -4267,7 +4275,7 @@
         <v>101</v>
       </c>
       <c r="C153" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -4278,7 +4286,7 @@
         <v>102</v>
       </c>
       <c r="C154" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -4289,7 +4297,7 @@
         <v>103</v>
       </c>
       <c r="C155" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -4300,7 +4308,7 @@
         <v>104</v>
       </c>
       <c r="C156" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -4311,7 +4319,7 @@
         <v>105</v>
       </c>
       <c r="C157" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -4322,7 +4330,7 @@
         <v>106</v>
       </c>
       <c r="C158" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -4333,7 +4341,7 @@
         <v>108</v>
       </c>
       <c r="C159" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -4344,7 +4352,7 @@
         <v>109</v>
       </c>
       <c r="C160" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -4366,7 +4374,7 @@
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -4377,7 +4385,7 @@
         <v>99</v>
       </c>
       <c r="C163" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -4388,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="C164" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -4399,7 +4407,7 @@
         <v>101</v>
       </c>
       <c r="C165" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -4410,7 +4418,7 @@
         <v>102</v>
       </c>
       <c r="C166" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4421,7 +4429,7 @@
         <v>103</v>
       </c>
       <c r="C167" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -4432,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="C168" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -4443,7 +4451,7 @@
         <v>105</v>
       </c>
       <c r="C169" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -4454,7 +4462,7 @@
         <v>106</v>
       </c>
       <c r="C170" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -4465,7 +4473,7 @@
         <v>108</v>
       </c>
       <c r="C171" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -4476,7 +4484,7 @@
         <v>109</v>
       </c>
       <c r="C172" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -4487,7 +4495,7 @@
         <v>110</v>
       </c>
       <c r="C173" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -4498,7 +4506,7 @@
         <v>111</v>
       </c>
       <c r="C174" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -4509,7 +4517,7 @@
         <v>112</v>
       </c>
       <c r="C175" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -4520,7 +4528,7 @@
         <v>113</v>
       </c>
       <c r="C176" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -4531,7 +4539,7 @@
         <v>114</v>
       </c>
       <c r="C177" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -4542,7 +4550,7 @@
         <v>115</v>
       </c>
       <c r="C178" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -4553,7 +4561,7 @@
         <v>116</v>
       </c>
       <c r="C179" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -4564,7 +4572,7 @@
         <v>117</v>
       </c>
       <c r="C180" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -4575,7 +4583,7 @@
         <v>118</v>
       </c>
       <c r="C181" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -4586,7 +4594,7 @@
         <v>119</v>
       </c>
       <c r="C182" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -4597,7 +4605,7 @@
         <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -4608,7 +4616,7 @@
         <v>99</v>
       </c>
       <c r="C184" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -4619,7 +4627,7 @@
         <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -4630,7 +4638,7 @@
         <v>99</v>
       </c>
       <c r="C186" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -4641,7 +4649,7 @@
         <v>100</v>
       </c>
       <c r="C187" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -4652,7 +4660,7 @@
         <v>101</v>
       </c>
       <c r="C188" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -4663,7 +4671,7 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -4674,7 +4682,7 @@
         <v>99</v>
       </c>
       <c r="C190" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/iecodebook.xlsx
+++ b/iecodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B44F9-7D54-45C1-AEE4-F3544A1DCC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA09D3E-2AE9-44C3-A26A-9ECA8447FD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="333">
   <si>
     <t>name</t>
   </si>
@@ -156,9 +156,6 @@
     <t>pnea_est</t>
   </si>
   <si>
-    <t>niv_ins</t>
-  </si>
-  <si>
     <t>hij5c</t>
   </si>
   <si>
@@ -171,33 +168,12 @@
     <t>emp_ppal</t>
   </si>
   <si>
+    <t>p3o</t>
+  </si>
+  <si>
     <t>p4a</t>
   </si>
   <si>
-    <t>p4a_1</t>
-  </si>
-  <si>
-    <t>merge_COE2T105</t>
-  </si>
-  <si>
-    <t>merge_COE1T110</t>
-  </si>
-  <si>
-    <t>merge_COE2T110</t>
-  </si>
-  <si>
-    <t>merge_COE1T115</t>
-  </si>
-  <si>
-    <t>merge_COE2T115</t>
-  </si>
-  <si>
-    <t>merge_COE1T119</t>
-  </si>
-  <si>
-    <t>merge_COE2T119</t>
-  </si>
-  <si>
     <t>house_id</t>
   </si>
   <si>
@@ -273,9 +249,6 @@
     <t>Composición de la población no económicamente activa</t>
   </si>
   <si>
-    <t>Clasificación de la población ocupada por nivel de instrucción</t>
-  </si>
-  <si>
     <t>Clasificación de la población femenina de 14 años y más por número de hijos</t>
   </si>
   <si>
@@ -288,15 +261,12 @@
     <t>Clasificación de empleos formales e informales de la primera actividad</t>
   </si>
   <si>
+    <t>Para conseguir o conservar este trabajo, ¿ ... se vio obligado a cambiar de ciud</t>
+  </si>
+  <si>
     <t>¿A qué se dedica esta empresa, negocio o institución?</t>
   </si>
   <si>
-    <t>Campo exclusivo del sistema</t>
-  </si>
-  <si>
-    <t>Matching result from merge</t>
-  </si>
-  <si>
     <t>type:current</t>
   </si>
   <si>
@@ -315,9 +285,6 @@
     <t>choices:current</t>
   </si>
   <si>
-    <t>_merge</t>
-  </si>
-  <si>
     <t>recode:current</t>
   </si>
   <si>
@@ -420,21 +387,6 @@
     <t>105</t>
   </si>
   <si>
-    <t>Master only (1)</t>
-  </si>
-  <si>
-    <t>Using only (2)</t>
-  </si>
-  <si>
-    <t>Matched (3)</t>
-  </si>
-  <si>
-    <t>Missing updated (4)</t>
-  </si>
-  <si>
-    <t>Nonmissing conflict (5)</t>
-  </si>
-  <si>
     <t>Residente habitual</t>
   </si>
   <si>
@@ -486,6 +438,39 @@
     <t>Desocupados Ausentes sin ingreso y sin nexo  laborla</t>
   </si>
   <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Preescolar</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>Secundaria</t>
+  </si>
+  <si>
+    <t>Preparatoria o bachillerato</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Carrera técnica</t>
+  </si>
+  <si>
+    <t>Profesional</t>
+  </si>
+  <si>
+    <t>Maestría</t>
+  </si>
+  <si>
+    <t>Doctorado</t>
+  </si>
+  <si>
+    <t>No Sabe</t>
+  </si>
+  <si>
     <t>Menor de doce años</t>
   </si>
   <si>
@@ -708,16 +693,10 @@
     <t>Veintiséis hijos</t>
   </si>
   <si>
-    <t>Primaria incompleta</t>
-  </si>
-  <si>
-    <t>Prrimaria completa</t>
-  </si>
-  <si>
-    <t>Secundaria completa</t>
-  </si>
-  <si>
-    <t>Medio superior y superior</t>
+    <t>Sí cambió de ciudad</t>
+  </si>
+  <si>
+    <t>No cambió de ciudad</t>
   </si>
   <si>
     <t>1ER DIGITO=Trimestre  ULTIMOS DOS=AÑO</t>
@@ -897,73 +876,151 @@
     <t>Year/Quarter</t>
   </si>
   <si>
+    <t>Relationship with the household head</t>
+  </si>
+  <si>
+    <t>Men/women identifier</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Educational level</t>
+  </si>
+  <si>
+    <t>Number of sons or daughters born alive</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Urban/rural identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>Economically active identifier</t>
+  </si>
+  <si>
+    <t>Economically active categories</t>
+  </si>
+  <si>
+    <t>Economically active. Extended categories</t>
+  </si>
+  <si>
+    <t>Unpaid, salaried, self-employed, employer</t>
+  </si>
+  <si>
+    <t>Economic activity</t>
+  </si>
+  <si>
+    <t>Economic sectors</t>
+  </si>
+  <si>
+    <t>Economic activity. Extended</t>
+  </si>
+  <si>
+    <t>Categories of non-economically active population</t>
+  </si>
+  <si>
+    <t>Monthly income</t>
+  </si>
+  <si>
+    <t>Economic activities based on SCIAN categorization</t>
+  </si>
+  <si>
+    <t>Main job. Formal or informal</t>
+  </si>
+  <si>
+    <t>Household identificator</t>
+  </si>
+  <si>
+    <t>Respondent identificator</t>
+  </si>
+  <si>
+    <t>(105=1)(110=2)(115=3)(119=4)</t>
+  </si>
+  <si>
     <t>(1=1)(2=0)</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Educational level</t>
-  </si>
-  <si>
-    <t>Number of sons or daughters born alive</t>
-  </si>
-  <si>
-    <t>Marital Status</t>
-  </si>
-  <si>
-    <t>Urban/rural identifier</t>
-  </si>
-  <si>
-    <t>Men/women identifier</t>
-  </si>
-  <si>
-    <t>Relationship with the household head</t>
-  </si>
-  <si>
-    <t>soc_est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight </t>
-  </si>
-  <si>
-    <t>Economically Active identifier</t>
-  </si>
-  <si>
-    <t>No studies at all</t>
+    <t>(99=.d)</t>
+  </si>
+  <si>
+    <t>Free union</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Doesn't know</t>
+  </si>
+  <si>
+    <t>Does not apply</t>
+  </si>
+  <si>
+    <t>Informal job</t>
+  </si>
+  <si>
+    <t>Formal job</t>
+  </si>
+  <si>
+    <t>Economically active</t>
+  </si>
+  <si>
+    <t>Non-economically active</t>
   </si>
   <si>
     <t>Preschool</t>
   </si>
   <si>
-    <t>Primary education</t>
-  </si>
-  <si>
-    <t>Secondary education</t>
+    <t>Primary school</t>
+  </si>
+  <si>
+    <t>Secondary school</t>
   </si>
   <si>
     <t>High school</t>
   </si>
   <si>
-    <t>Bachelors degree</t>
+    <t>Teacher training college</t>
   </si>
   <si>
     <t>Technical career</t>
   </si>
   <si>
-    <t xml:space="preserve">Teacher training </t>
-  </si>
-  <si>
-    <t>Ph.D.</t>
-  </si>
-  <si>
-    <t>Masters degree</t>
-  </si>
-  <si>
-    <t>Doesn't know</t>
-  </si>
-  <si>
-    <t>(99=.)</t>
+    <t>Bachelor's degree</t>
+  </si>
+  <si>
+    <t>Master's degree</t>
+  </si>
+  <si>
+    <t>Ph.D. degree</t>
+  </si>
+  <si>
+    <t>Less than 2,500 inhabitants</t>
+  </si>
+  <si>
+    <t>More than 100,000 inhabitants</t>
+  </si>
+  <si>
+    <t>Between 15,000 and 99,999 inhabitants</t>
+  </si>
+  <si>
+    <t>Between 2,500 and 14,999 inhabitants</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1010,6 +1067,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,23 +1385,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1361,16 +1421,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1398,7 +1458,7 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1407,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1419,24 +1479,21 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1448,7 +1505,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1456,28 +1513,25 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1485,7 +1539,7 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1494,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1506,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1514,7 +1568,7 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1523,7 +1577,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1535,16 +1589,16 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
+      <c r="I7" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1564,7 +1618,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1572,7 +1626,7 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1581,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -1593,24 +1647,21 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1622,7 +1673,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1631,7 +1682,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1639,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -1651,7 +1702,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1659,25 +1710,28 @@
       <c r="H11" t="s">
         <v>20</v>
       </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1686,7 +1740,7 @@
         <v>31</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1694,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1706,7 +1760,7 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1714,7 +1768,7 @@
       <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1723,19 +1777,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1743,7 +1797,7 @@
       <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1752,7 +1806,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -1764,7 +1818,7 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1773,7 +1827,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1781,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1793,15 +1847,15 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1810,19 +1864,19 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1830,7 +1884,7 @@
       <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1838,8 +1892,8 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="B18" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1851,7 +1905,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1859,7 +1913,7 @@
       <c r="H18" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1867,8 +1921,8 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
+      <c r="B19" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1880,7 +1934,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1888,7 +1942,7 @@
       <c r="H19" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1896,8 +1950,8 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B20" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1909,7 +1963,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1917,7 +1971,7 @@
       <c r="H20" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1925,8 +1979,8 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
+      <c r="B21" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -1938,7 +1992,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -1946,7 +2000,7 @@
       <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1954,8 +2008,8 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
+      <c r="B22" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -1967,7 +2021,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -1975,7 +2029,7 @@
       <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1983,8 +2037,8 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
+      <c r="B23" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1996,7 +2050,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -2004,7 +2058,7 @@
       <c r="H23" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2012,8 +2066,8 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
+      <c r="B24" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -2025,7 +2079,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -2033,7 +2087,7 @@
       <c r="H24" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2041,8 +2095,8 @@
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
-        <v>20</v>
+      <c r="B25" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2054,7 +2108,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -2062,7 +2116,7 @@
       <c r="H25" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2070,8 +2124,8 @@
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
+      <c r="B26" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2083,15 +2137,15 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2099,8 +2153,8 @@
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
-        <v>20</v>
+      <c r="B27" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2112,15 +2166,15 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2128,20 +2182,20 @@
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>20</v>
+      <c r="B28" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
-        <v>20</v>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
@@ -2149,7 +2203,7 @@
       <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2170,7 +2224,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
@@ -2178,7 +2232,7 @@
       <c r="H29" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2199,15 +2253,15 @@
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2215,8 +2269,8 @@
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
-        <v>20</v>
+      <c r="B31" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -2228,15 +2282,15 @@
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
-      </c>
-      <c r="I31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2244,8 +2298,8 @@
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
-        <v>20</v>
+      <c r="B32" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -2257,247 +2311,15 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2508,76 +2330,380 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="34.36328125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2587,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C179" sqref="A176:C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2608,178 +2734,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2787,10 +2913,10 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2798,10 +2924,10 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2809,65 +2935,65 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2875,10 +3001,10 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2886,10 +3012,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -2897,10 +3023,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2908,10 +3034,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2919,10 +3045,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2930,65 +3056,65 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>309</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>308</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2996,7 +3122,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>154</v>
@@ -3007,7 +3133,7 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
         <v>155</v>
@@ -3018,7 +3144,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
         <v>156</v>
@@ -3026,76 +3152,76 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>162</v>
@@ -3103,10 +3229,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>163</v>
@@ -3117,7 +3243,7 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>164</v>
@@ -3128,7 +3254,7 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
         <v>165</v>
@@ -3139,7 +3265,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
         <v>166</v>
@@ -3150,7 +3276,7 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>167</v>
@@ -3161,7 +3287,7 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>168</v>
@@ -3172,7 +3298,7 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
         <v>169</v>
@@ -3183,7 +3309,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
         <v>170</v>
@@ -3194,7 +3320,7 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
         <v>171</v>
@@ -3205,7 +3331,7 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
         <v>172</v>
@@ -3216,7 +3342,7 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
         <v>173</v>
@@ -3227,7 +3353,7 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
         <v>174</v>
@@ -3238,7 +3364,7 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
         <v>175</v>
@@ -3249,7 +3375,7 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
         <v>176</v>
@@ -3260,7 +3386,7 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
         <v>177</v>
@@ -3271,7 +3397,7 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
         <v>178</v>
@@ -3282,7 +3408,7 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
         <v>179</v>
@@ -3293,7 +3419,7 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
         <v>180</v>
@@ -3304,7 +3430,7 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
         <v>181</v>
@@ -3315,7 +3441,7 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
         <v>182</v>
@@ -3326,7 +3452,7 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>183</v>
@@ -3337,7 +3463,7 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>184</v>
@@ -3348,7 +3474,7 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
         <v>185</v>
@@ -3359,7 +3485,7 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>186</v>
@@ -3370,7 +3496,7 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
         <v>187</v>
@@ -3381,7 +3507,7 @@
         <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
         <v>188</v>
@@ -3392,7 +3518,7 @@
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
         <v>189</v>
@@ -3403,7 +3529,7 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>190</v>
@@ -3411,76 +3537,76 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>196</v>
@@ -3488,10 +3614,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
         <v>197</v>
@@ -3499,10 +3625,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>198</v>
@@ -3510,10 +3636,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
         <v>199</v>
@@ -3521,10 +3647,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
         <v>200</v>
@@ -3535,7 +3661,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
         <v>201</v>
@@ -3546,7 +3672,7 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
         <v>202</v>
@@ -3557,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>203</v>
@@ -3568,7 +3694,7 @@
         <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
         <v>204</v>
@@ -3579,7 +3705,7 @@
         <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
         <v>205</v>
@@ -3590,7 +3716,7 @@
         <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
         <v>206</v>
@@ -3601,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
         <v>207</v>
@@ -3612,7 +3738,7 @@
         <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
         <v>208</v>
@@ -3623,7 +3749,7 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
         <v>209</v>
@@ -3634,7 +3760,7 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
         <v>210</v>
@@ -3645,7 +3771,7 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
         <v>211</v>
@@ -3656,7 +3782,7 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
         <v>212</v>
@@ -3667,7 +3793,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
         <v>213</v>
@@ -3678,7 +3804,7 @@
         <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
         <v>214</v>
@@ -3689,7 +3815,7 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>215</v>
@@ -3700,7 +3826,7 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
         <v>216</v>
@@ -3711,7 +3837,7 @@
         <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
         <v>217</v>
@@ -3722,7 +3848,7 @@
         <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
         <v>218</v>
@@ -3733,7 +3859,7 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
         <v>219</v>
@@ -3744,7 +3870,7 @@
         <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
         <v>220</v>
@@ -3755,7 +3881,7 @@
         <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
         <v>221</v>
@@ -3766,7 +3892,7 @@
         <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
         <v>222</v>
@@ -3777,161 +3903,161 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
         <v>124</v>
-      </c>
-      <c r="C112" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>232</v>
@@ -3939,98 +4065,98 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C124" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C130" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C131" t="s">
         <v>239</v>
@@ -4038,189 +4164,189 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B132" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C132" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C134" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C137" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C138" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C139" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C142" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B143" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C143" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C144" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C145" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B146" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C146" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B147" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C147" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B148" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C148" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -4228,10 +4354,10 @@
         <v>42</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C149" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -4239,10 +4365,10 @@
         <v>42</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C150" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -4250,73 +4376,73 @@
         <v>42</v>
       </c>
       <c r="B151" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C151" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B152" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C154" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C155" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B156" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C156" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C157" t="s">
         <v>255</v>
@@ -4324,10 +4450,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B158" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C158" t="s">
         <v>256</v>
@@ -4335,10 +4461,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C159" t="s">
         <v>257</v>
@@ -4346,10 +4472,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C160" t="s">
         <v>258</v>
@@ -4357,332 +4483,233 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C161" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C162" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C163" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C164" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C165" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C166" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B167" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C167" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B168" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C168" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B169" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C169" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C170" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C171" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C172" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C173" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B174" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B175" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C175" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C177" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B178" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C178" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B179" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C179" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B180" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B181" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C181" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>47</v>
-      </c>
-      <c r="B182" t="s">
-        <v>119</v>
-      </c>
-      <c r="C182" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>29</v>
-      </c>
-      <c r="B183" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>29</v>
-      </c>
-      <c r="B184" t="s">
-        <v>99</v>
-      </c>
-      <c r="C184" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>24</v>
-      </c>
-      <c r="B185" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>24</v>
-      </c>
-      <c r="B186" t="s">
-        <v>99</v>
-      </c>
-      <c r="C186" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>24</v>
-      </c>
-      <c r="B187" t="s">
-        <v>100</v>
-      </c>
-      <c r="C187" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>24</v>
-      </c>
-      <c r="B188" t="s">
-        <v>101</v>
-      </c>
-      <c r="C188" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>34</v>
-      </c>
-      <c r="B189" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>34</v>
-      </c>
-      <c r="B190" t="s">
-        <v>99</v>
-      </c>
-      <c r="C190" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/iecodebook.xlsx
+++ b/iecodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA09D3E-2AE9-44C3-A26A-9ECA8447FD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D8EF35-CBB4-4942-8D78-21F824D1C798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="341">
   <si>
     <t>name</t>
   </si>
@@ -1021,6 +1021,30 @@
   </si>
   <si>
     <t>Between 2,500 and 14,999 inhabitants</t>
+  </si>
+  <si>
+    <t>1st quarter of 2005</t>
+  </si>
+  <si>
+    <t>1st quarter of 2010</t>
+  </si>
+  <si>
+    <t>1st quarter of 2015</t>
+  </si>
+  <si>
+    <t>1st quarter of 2019</t>
+  </si>
+  <si>
+    <t>Did you move from your hometown to keep or maintain your current job?</t>
+  </si>
+  <si>
+    <t>Yes, I moved from my hometown</t>
+  </si>
+  <si>
+    <t>No, I didn't move from my hometown</t>
+  </si>
+  <si>
+    <t>(0=.n)(1=1)(2=0)</t>
   </si>
 </sst>
 </file>
@@ -1387,14 +1411,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -1582,8 +1606,8 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -2211,14 +2235,14 @@
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
+      <c r="B29" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
-        <v>20</v>
+      <c r="D29" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
@@ -2232,8 +2256,8 @@
       <c r="H29" t="s">
         <v>48</v>
       </c>
-      <c r="I29" t="s">
-        <v>20</v>
+      <c r="I29" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2330,17 +2354,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="34.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -2704,6 +2728,83 @@
       </c>
       <c r="C33" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2715,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C179" sqref="A176:C179"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C111" sqref="A109:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/iecodebook.xlsx
+++ b/iecodebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57917il\Documents\GitHub\Chapter1-PhDthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D8EF35-CBB4-4942-8D78-21F824D1C798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534AC246-F50E-4BBD-AFA1-09EA05B67426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1051,7 +1051,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1412,10 +1412,10 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.08984375" bestFit="1" customWidth="1"/>
@@ -1428,7 +1428,7 @@
     <col min="9" max="9" width="26.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="B4" s="1" t="s">
         <v>280</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
         <v>285</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1908,11 +1908,11 @@
       <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2356,18 +2356,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="3"/>
     <col min="3" max="3" width="60.6328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -2543,240 +2543,240 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>36</v>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="3">
-        <v>2</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="3">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
@@ -2785,26 +2785,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>48</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>339</v>
+      <c r="C40" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2816,13 +2816,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C111" sqref="A109:C111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>25</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>25</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>44</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>32</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>32</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>32</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>32</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>32</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>32</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>32</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>32</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>48</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>48</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>49</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>43</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>39</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>40</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>40</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>40</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>42</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>42</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>46</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>46</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>46</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>46</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>46</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>46</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>46</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>46</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>46</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>46</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>46</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>46</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>46</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>46</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>46</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>46</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>46</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>46</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>46</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>46</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>29</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>29</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>34</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>34</v>
       </c>
